--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68188892914467</v>
+        <v>2.614605666666666</v>
       </c>
       <c r="N2">
-        <v>1.68188892914467</v>
+        <v>7.843817</v>
       </c>
       <c r="O2">
-        <v>0.04968549930608777</v>
+        <v>0.07238665237615237</v>
       </c>
       <c r="P2">
-        <v>0.04968549930608777</v>
+        <v>0.07238665237615237</v>
       </c>
       <c r="Q2">
-        <v>292.1700358785617</v>
+        <v>481.2513540389804</v>
       </c>
       <c r="R2">
-        <v>292.1700358785617</v>
+        <v>4331.262186350824</v>
       </c>
       <c r="S2">
-        <v>0.03186505006812138</v>
+        <v>0.04712737166270234</v>
       </c>
       <c r="T2">
-        <v>0.03186505006812138</v>
+        <v>0.04712737166270235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.0498869596989</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N3">
-        <v>14.0498869596989</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O3">
-        <v>0.4150545477112689</v>
+        <v>0.4070206225838464</v>
       </c>
       <c r="P3">
-        <v>0.4150545477112689</v>
+        <v>0.4070206225838464</v>
       </c>
       <c r="Q3">
-        <v>2440.681965361739</v>
+        <v>2706.013046747785</v>
       </c>
       <c r="R3">
-        <v>2440.681965361739</v>
+        <v>24354.11742073007</v>
       </c>
       <c r="S3">
-        <v>0.2661890114526947</v>
+        <v>0.2649910104312661</v>
       </c>
       <c r="T3">
-        <v>0.2661890114526947</v>
+        <v>0.2649910104312662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.1189240665576</v>
+        <v>18.80380766666667</v>
       </c>
       <c r="N4">
-        <v>18.1189240665576</v>
+        <v>56.411423</v>
       </c>
       <c r="O4">
-        <v>0.5352599529826434</v>
+        <v>0.5205927250400012</v>
       </c>
       <c r="P4">
-        <v>0.5352599529826434</v>
+        <v>0.5205927250400012</v>
       </c>
       <c r="Q4">
-        <v>3147.536441243627</v>
+        <v>3461.079433905162</v>
       </c>
       <c r="R4">
-        <v>3147.536441243627</v>
+        <v>31149.71490514646</v>
       </c>
       <c r="S4">
-        <v>0.3432809459391386</v>
+        <v>0.33893219305638</v>
       </c>
       <c r="T4">
-        <v>0.3432809459391386</v>
+        <v>0.3389321930563801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.68188892914467</v>
+        <v>2.614605666666666</v>
       </c>
       <c r="N5">
-        <v>1.68188892914467</v>
+        <v>7.843817</v>
       </c>
       <c r="O5">
-        <v>0.04968549930608777</v>
+        <v>0.07238665237615237</v>
       </c>
       <c r="P5">
-        <v>0.04968549930608777</v>
+        <v>0.07238665237615237</v>
       </c>
       <c r="Q5">
-        <v>95.77453033537559</v>
+        <v>150.1918391526</v>
       </c>
       <c r="R5">
-        <v>95.77453033537559</v>
+        <v>1351.7265523734</v>
       </c>
       <c r="S5">
-        <v>0.01044549347851686</v>
+        <v>0.01470779576004283</v>
       </c>
       <c r="T5">
-        <v>0.01044549347851686</v>
+        <v>0.01470779576004283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0498869596989</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N6">
-        <v>14.0498869596989</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O6">
-        <v>0.4150545477112689</v>
+        <v>0.4070206225838464</v>
       </c>
       <c r="P6">
-        <v>0.4150545477112689</v>
+        <v>0.4070206225838464</v>
       </c>
       <c r="Q6">
-        <v>800.0655105772057</v>
+        <v>844.5089511977998</v>
       </c>
       <c r="R6">
-        <v>800.0655105772057</v>
+        <v>7600.580560780199</v>
       </c>
       <c r="S6">
-        <v>0.08725784447969948</v>
+        <v>0.08270000049153937</v>
       </c>
       <c r="T6">
-        <v>0.08725784447969948</v>
+        <v>0.08270000049153937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.1189240665576</v>
+        <v>18.80380766666667</v>
       </c>
       <c r="N7">
-        <v>18.1189240665576</v>
+        <v>56.411423</v>
       </c>
       <c r="O7">
-        <v>0.5352599529826434</v>
+        <v>0.5205927250400012</v>
       </c>
       <c r="P7">
-        <v>0.5352599529826434</v>
+        <v>0.5205927250400012</v>
       </c>
       <c r="Q7">
-        <v>1031.77529299714</v>
+        <v>1080.1546453194</v>
       </c>
       <c r="R7">
-        <v>1031.77529299714</v>
+        <v>9721.391807874599</v>
       </c>
       <c r="S7">
-        <v>0.1125288952768236</v>
+        <v>0.1057760128796201</v>
       </c>
       <c r="T7">
-        <v>0.1125288952768236</v>
+        <v>0.1057760128796201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H8">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.68188892914467</v>
+        <v>2.614605666666666</v>
       </c>
       <c r="N8">
-        <v>1.68188892914467</v>
+        <v>7.843817</v>
       </c>
       <c r="O8">
-        <v>0.04968549930608777</v>
+        <v>0.07238665237615237</v>
       </c>
       <c r="P8">
-        <v>0.04968549930608777</v>
+        <v>0.07238665237615237</v>
       </c>
       <c r="Q8">
-        <v>67.62082859542824</v>
+        <v>107.7487719300908</v>
       </c>
       <c r="R8">
-        <v>67.62082859542824</v>
+        <v>969.738947370817</v>
       </c>
       <c r="S8">
-        <v>0.007374955759449529</v>
+        <v>0.01055148495340719</v>
       </c>
       <c r="T8">
-        <v>0.007374955759449529</v>
+        <v>0.01055148495340719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H9">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.0498869596989</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N9">
-        <v>14.0498869596989</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O9">
-        <v>0.4150545477112689</v>
+        <v>0.4070206225838464</v>
       </c>
       <c r="P9">
-        <v>0.4150545477112689</v>
+        <v>0.4070206225838464</v>
       </c>
       <c r="Q9">
-        <v>564.8797500380125</v>
+        <v>605.85716833175</v>
       </c>
       <c r="R9">
-        <v>564.8797500380125</v>
+        <v>5452.71451498575</v>
       </c>
       <c r="S9">
-        <v>0.06160769177887458</v>
+        <v>0.05932961166104087</v>
       </c>
       <c r="T9">
-        <v>0.06160769177887458</v>
+        <v>0.05932961166104087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H10">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.1189240665576</v>
+        <v>18.80380766666667</v>
       </c>
       <c r="N10">
-        <v>18.1189240665576</v>
+        <v>56.411423</v>
       </c>
       <c r="O10">
-        <v>0.5352599529826434</v>
+        <v>0.5205927250400012</v>
       </c>
       <c r="P10">
-        <v>0.5352599529826434</v>
+        <v>0.5205927250400012</v>
       </c>
       <c r="Q10">
-        <v>728.4765583547535</v>
+        <v>774.9111881471581</v>
       </c>
       <c r="R10">
-        <v>728.4765583547535</v>
+        <v>6974.200693324423</v>
       </c>
       <c r="S10">
-        <v>0.07945011176668111</v>
+        <v>0.07588451910400106</v>
       </c>
       <c r="T10">
-        <v>0.07945011176668111</v>
+        <v>0.07588451910400106</v>
       </c>
     </row>
   </sheetData>
